--- a/daily update.xlsx
+++ b/daily update.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/C7DD620D9E945120/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7dd620d9e945120/Desktop/my work/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75EB29EC-11A9-4DF5-8893-4565F16F8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{75EB29EC-11A9-4DF5-8893-4565F16F8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34369AD3-B697-476E-B46C-B244945400D5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C08E5961-8585-49DE-9015-0083614E755B}"/>
+    <workbookView minimized="1" xWindow="4428" yWindow="3648" windowWidth="17280" windowHeight="8592" activeTab="1" xr2:uid="{C08E5961-8585-49DE-9015-0083614E755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="scenario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="143">
   <si>
     <t>test case id</t>
   </si>
@@ -418,13 +419,82 @@
   </si>
   <si>
     <t>it should apply code</t>
+  </si>
+  <si>
+    <t>sr. no.</t>
+  </si>
+  <si>
+    <t>Positive scenario</t>
+  </si>
+  <si>
+    <t>Negative scenario</t>
+  </si>
+  <si>
+    <t>verify if restaurant list displays for valid location</t>
+  </si>
+  <si>
+    <t>verify restaurant list for invalid location</t>
+  </si>
+  <si>
+    <t>verify search with valid restaurant name</t>
+  </si>
+  <si>
+    <t>verify search with invalid restaurant name</t>
+  </si>
+  <si>
+    <t>verify search using valid cuisine name</t>
+  </si>
+  <si>
+    <t>verify search using invalid cuisine name</t>
+  </si>
+  <si>
+    <t>verify filter by valid cuisine</t>
+  </si>
+  <si>
+    <t>verify filter when no restaurant matches cuisine</t>
+  </si>
+  <si>
+    <t>verify filter by valid rating</t>
+  </si>
+  <si>
+    <t>verify filter with invalid rating value</t>
+  </si>
+  <si>
+    <t>verify restaurant sorting by distance</t>
+  </si>
+  <si>
+    <t>verify sorting when distance data is unavailable</t>
+  </si>
+  <si>
+    <t>verify clearing applied filters</t>
+  </si>
+  <si>
+    <t>verify clear filter when no filter is applied</t>
+  </si>
+  <si>
+    <t>verify restaurant details page opens on selection</t>
+  </si>
+  <si>
+    <t>verify restaurant page for closed restaurant</t>
+  </si>
+  <si>
+    <t>verify search using dish name</t>
+  </si>
+  <si>
+    <t>verify search with numeric values</t>
+  </si>
+  <si>
+    <t>verify filter by offers</t>
+  </si>
+  <si>
+    <t>verify filter with invalid delivery time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +524,20 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -482,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,6 +584,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -839,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55B3204-6D82-474C-A7F4-C32029A807FA}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H50"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,7 +1075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1011,7 +1101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1037,7 +1127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1063,7 +1153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1089,7 +1179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1115,7 +1205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1141,7 +1231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1167,7 +1257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1193,7 +1283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1219,7 +1309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1245,7 +1335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1271,7 +1361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1297,7 +1387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1323,7 +1413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1349,7 +1439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1375,7 +1465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1401,7 +1491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1427,7 +1517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1453,7 +1543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1479,7 +1569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1505,7 +1595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1531,7 +1621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1557,7 +1647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1583,7 +1673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1609,7 +1699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1635,7 +1725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1661,7 +1751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1687,7 +1777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1713,7 +1803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1739,7 +1829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1765,7 +1855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1791,7 +1881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1817,7 +1907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1843,7 +1933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1869,7 +1959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1895,7 +1985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1921,7 +2011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1944,7 +2034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1970,7 +2060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1996,7 +2086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2022,7 +2112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2038,7 +2128,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>114</v>
@@ -2050,7 +2140,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>114</v>
@@ -2062,7 +2152,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>114</v>
@@ -2074,7 +2164,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -2092,4 +2182,145 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A785E605-A583-4E22-9CE4-71ABC18225E4}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>